--- a/xlsx/大盆地_intext.xlsx
+++ b/xlsx/大盆地_intext.xlsx
@@ -29,7 +29,7 @@
     <t>内流盆地</t>
   </si>
   <si>
-    <t>政策_政策_美國_大盆地</t>
+    <t>政策_政策_美国_大盆地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E6%B0%B4%E7%9B%86%E5%9C%B0</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E6%B9%96%E5%9F%8E</t>
   </si>
   <si>
-    <t>鹽湖城</t>
+    <t>盐湖城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E8%B0%B7</t>
   </si>
   <si>
-    <t>棕櫚谷</t>
+    <t>棕榈谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E6%B3%89</t>
   </si>
   <si>
-    <t>棕櫚泉</t>
+    <t>棕榈泉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%85%8B%E5%A4%9A%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>加利福尼亞灣</t>
+    <t>加利福尼亚湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>地中海氣候</t>
+    <t>地中海气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%89%E8%A7%92%E7%BE%9A</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E7%8D%85</t>
   </si>
   <si>
-    <t>美洲獅</t>
+    <t>美洲狮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E7%8B%BC</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%B9%BF</t>
   </si>
   <si>
-    <t>馬鹿</t>
+    <t>马鹿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A7%92%E7%BE%8A</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%BF%E5%B0%BE%E8%9B%87</t>
   </si>
   <si>
-    <t>響尾蛇</t>
+    <t>响尾蛇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%AD%97%E5%A1%94%E6%B9%96</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%BE%8E%E8%8D%89%E5%9C%B0%E9%B7%9A</t>
   </si>
   <si>
-    <t>西美草地鷚</t>
+    <t>西美草地鹨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A1%E9%B4%89</t>
   </si>
   <si>
-    <t>渡鴉</t>
+    <t>渡鸦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/United_States_Geological_Survey</t>
